--- a/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37831</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28942</v>
+        <v>28383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49710</v>
+        <v>48859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1029094477556303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07873097276425289</v>
+        <v>0.07720938267293374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1352244835405007</v>
+        <v>0.1329105405870496</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -762,19 +762,19 @@
         <v>35733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28174</v>
+        <v>28509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45735</v>
+        <v>45111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1036270003625194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08170698293096756</v>
+        <v>0.0826764369130501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1326340738506428</v>
+        <v>0.1308226579863072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -783,19 +783,19 @@
         <v>73564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61095</v>
+        <v>61349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86948</v>
+        <v>88058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1032567477677994</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0857551458554829</v>
+        <v>0.08611198717941253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1220439960629869</v>
+        <v>0.1236013276469377</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8390</v>
+        <v>8641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21086</v>
+        <v>21146</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03697010241691804</v>
+        <v>0.03697010241691805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0228233656496262</v>
+        <v>0.02350550699631566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05735873266789481</v>
+        <v>0.05752283745535264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -833,19 +833,19 @@
         <v>15459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10588</v>
+        <v>10511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22329</v>
+        <v>22935</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04483147099810773</v>
+        <v>0.04483147099810774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03070460688219253</v>
+        <v>0.03048251858406716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06475534745247363</v>
+        <v>0.06651399046809937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -854,19 +854,19 @@
         <v>29050</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21357</v>
+        <v>21208</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38955</v>
+        <v>38530</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04077505466390349</v>
+        <v>0.0407750546639035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02997686264844896</v>
+        <v>0.02976781482486316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05467934670611445</v>
+        <v>0.0540828550140344</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>39250</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28841</v>
+        <v>28543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52745</v>
+        <v>52264</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1067691561822553</v>
+        <v>0.1067691561822554</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07845653849628112</v>
+        <v>0.07764580753534123</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1434803125609762</v>
+        <v>0.1421710632623563</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -904,19 +904,19 @@
         <v>37840</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30522</v>
+        <v>29106</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49115</v>
+        <v>47547</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1097376293411376</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08851472875074982</v>
+        <v>0.08440805651873483</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1424343790193335</v>
+        <v>0.1378884787989696</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>110</v>
@@ -925,19 +925,19 @@
         <v>77090</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63826</v>
+        <v>62554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94884</v>
+        <v>91995</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1082059160160368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08958882719595709</v>
+        <v>0.08780358927328843</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1331823881938666</v>
+        <v>0.1291275682279758</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>104044</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87916</v>
+        <v>85995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123237</v>
+        <v>121030</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2830269649884061</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2391541814016964</v>
+        <v>0.2339281229980544</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3352372501285634</v>
+        <v>0.3292342802256995</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -975,19 +975,19 @@
         <v>112411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97664</v>
+        <v>98562</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125981</v>
+        <v>127786</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3259969608638138</v>
+        <v>0.3259969608638139</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2832302977437567</v>
+        <v>0.285835671854874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.365351823875439</v>
+        <v>0.3705840068761353</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -996,19 +996,19 @@
         <v>216455</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194352</v>
+        <v>197036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239367</v>
+        <v>240487</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3038247154908186</v>
+        <v>0.3038247154908187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2727993269910381</v>
+        <v>0.2765667381765046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3359842350019679</v>
+        <v>0.3375562149376194</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>172896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148777</v>
+        <v>153818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>192339</v>
+        <v>193442</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4703243286567901</v>
+        <v>0.4703243286567902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4047140066768246</v>
+        <v>0.4184265535481149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5232133681868288</v>
+        <v>0.5262126598232217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>232</v>
@@ -1046,19 +1046,19 @@
         <v>143379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128429</v>
+        <v>129018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158388</v>
+        <v>158112</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4158069384344214</v>
+        <v>0.4158069384344215</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3724509343271637</v>
+        <v>0.3741580155538268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.459333779451109</v>
+        <v>0.4585325444600356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>398</v>
@@ -1067,19 +1067,19 @@
         <v>316276</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>291026</v>
+        <v>291284</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>340799</v>
+        <v>339495</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4439375660614415</v>
+        <v>0.4439375660614416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4084958945572251</v>
+        <v>0.4088574582946418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4783586331747799</v>
+        <v>0.476528130744712</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>28039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19401</v>
+        <v>19941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38316</v>
+        <v>37545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05002411690806727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03461266314182591</v>
+        <v>0.03557612929149141</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06835943654383481</v>
+        <v>0.06698429231688439</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -1192,19 +1192,19 @@
         <v>37117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28613</v>
+        <v>29212</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46699</v>
+        <v>46329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.071768621069634</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05532534302782061</v>
+        <v>0.05648322402474126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09029634994233025</v>
+        <v>0.08958088444489927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -1213,19 +1213,19 @@
         <v>65156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53315</v>
+        <v>52551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79851</v>
+        <v>79679</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06045926668922284</v>
+        <v>0.06045926668922285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04947204432864999</v>
+        <v>0.04876318974760151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07409518403236331</v>
+        <v>0.07393593454701106</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>23929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16234</v>
+        <v>16095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33668</v>
+        <v>34027</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04269229387284757</v>
+        <v>0.04269229387284759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02896262217552728</v>
+        <v>0.02871596357066178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0600674244856565</v>
+        <v>0.0607068803362615</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1263,19 +1263,19 @@
         <v>32365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24319</v>
+        <v>23563</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43034</v>
+        <v>44100</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06258021763118621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04702270986486438</v>
+        <v>0.0455600242018903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08320844156687791</v>
+        <v>0.08527096596497792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -1284,19 +1284,19 @@
         <v>56294</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44487</v>
+        <v>42829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>70586</v>
+        <v>70148</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05223647394301355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0412804454091628</v>
+        <v>0.03974167313848966</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06549762905328319</v>
+        <v>0.06509126788935027</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>49497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37556</v>
+        <v>37369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65475</v>
+        <v>64389</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08830757511077635</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06700330458984798</v>
+        <v>0.06666951634564534</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1168140891986572</v>
+        <v>0.1148774794436121</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -1334,19 +1334,19 @@
         <v>44715</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35617</v>
+        <v>35612</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57073</v>
+        <v>56343</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08646034585913848</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06886823693967709</v>
+        <v>0.06885788100598321</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1103548170968137</v>
+        <v>0.1089438950454348</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>121</v>
@@ -1355,19 +1355,19 @@
         <v>94212</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79007</v>
+        <v>78396</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>114023</v>
+        <v>112439</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08742109300119376</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07331181253443661</v>
+        <v>0.07274477580075212</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1058041018906151</v>
+        <v>0.1043339000342031</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>158056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134574</v>
+        <v>137401</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180088</v>
+        <v>182277</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2819886985883865</v>
+        <v>0.2819886985883864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2400933567091289</v>
+        <v>0.2451374033040531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3212954641964375</v>
+        <v>0.3252005366959216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -1405,19 +1405,19 @@
         <v>151336</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132961</v>
+        <v>135069</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170057</v>
+        <v>170394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2926193572588246</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.257089718535392</v>
+        <v>0.2611659348138128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3288162064879396</v>
+        <v>0.3294689562541235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>367</v>
@@ -1426,19 +1426,19 @@
         <v>309392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>281466</v>
+        <v>280956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>338619</v>
+        <v>337875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2870903332209404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2611770714161143</v>
+        <v>0.260703519100032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3142101318315167</v>
+        <v>0.313520114919477</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>300984</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>276800</v>
+        <v>275087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329462</v>
+        <v>325646</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5369873155199224</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4938396555729106</v>
+        <v>0.4907841001876432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5877941886653302</v>
+        <v>0.5809871057124727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>346</v>
@@ -1476,19 +1476,19 @@
         <v>251644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231402</v>
+        <v>232295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273512</v>
+        <v>271003</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4865714581812167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4474317338739819</v>
+        <v>0.4491581626037228</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5288544877626264</v>
+        <v>0.5240032993536428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>616</v>
@@ -1497,19 +1497,19 @@
         <v>552628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>522728</v>
+        <v>520629</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>586090</v>
+        <v>584485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5127928331456295</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4850475686096432</v>
+        <v>0.483100375958058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5438429567566503</v>
+        <v>0.5423532709533406</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>6264</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2829</v>
+        <v>2822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11274</v>
+        <v>12330</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02339197315489286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01056421440378572</v>
+        <v>0.0105384913496278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04210016328130217</v>
+        <v>0.04604507385278601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1622,19 +1622,19 @@
         <v>7373</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3980</v>
+        <v>4055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12454</v>
+        <v>12891</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02700542155894198</v>
+        <v>0.02700542155894199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01457587100698419</v>
+        <v>0.01485120538579532</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04561531918143572</v>
+        <v>0.047216198456858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1643,19 +1643,19 @@
         <v>13637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8997</v>
+        <v>8602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21028</v>
+        <v>20707</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02521622338232993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01663522214585323</v>
+        <v>0.01590597942313713</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03888285762995774</v>
+        <v>0.03828868759783673</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>8063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4207</v>
+        <v>4155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14324</v>
+        <v>14569</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03010945784315892</v>
+        <v>0.03010945784315893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01570961872842588</v>
+        <v>0.01551575451832614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05349017989966868</v>
+        <v>0.05440664897704159</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1693,19 +1693,19 @@
         <v>2071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5952</v>
+        <v>5719</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.007586827185855816</v>
+        <v>0.007586827185855818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002289616330230234</v>
+        <v>0.002328779121089989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02180103210416869</v>
+        <v>0.02094511805765482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1714,19 +1714,19 @@
         <v>10134</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5539</v>
+        <v>5278</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17338</v>
+        <v>17571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0187389027653486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01024226936786866</v>
+        <v>0.009758728873904983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03205869716439284</v>
+        <v>0.03248999696875959</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>19877</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12125</v>
+        <v>12360</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31516</v>
+        <v>32128</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07422903925515061</v>
+        <v>0.07422903925515062</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04527870502804066</v>
+        <v>0.04615790151851468</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1176927667235528</v>
+        <v>0.1199771461251452</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1764,19 +1764,19 @@
         <v>19584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13212</v>
+        <v>13594</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29087</v>
+        <v>29983</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.07172828616911263</v>
+        <v>0.07172828616911266</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04839052039436838</v>
+        <v>0.04978873845504159</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1065328081737506</v>
+        <v>0.1098163679934805</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -1785,19 +1785,19 @@
         <v>39461</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28769</v>
+        <v>28963</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54783</v>
+        <v>53171</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07296653350555786</v>
+        <v>0.07296653350555787</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05319616510579413</v>
+        <v>0.05355416999888055</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1012982275469556</v>
+        <v>0.09831689057357247</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>129975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113442</v>
+        <v>112013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150169</v>
+        <v>147507</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.485375846477517</v>
+        <v>0.4853758464775172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4236352517150786</v>
+        <v>0.4182977161991579</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5607863594481921</v>
+        <v>0.550845884621645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>165</v>
@@ -1835,19 +1835,19 @@
         <v>120933</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106035</v>
+        <v>107103</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>135565</v>
+        <v>138169</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4429305198736402</v>
+        <v>0.4429305198736403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3883665541767721</v>
+        <v>0.3922780855342058</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4965237553702023</v>
+        <v>0.506061496788645</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>287</v>
@@ -1856,19 +1856,19 @@
         <v>250909</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>227163</v>
+        <v>228205</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>271760</v>
+        <v>275849</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.463947313936691</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4200406697410197</v>
+        <v>0.4219657000769867</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5025023049204377</v>
+        <v>0.5100626561591277</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>103604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85938</v>
+        <v>87466</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124288</v>
+        <v>122647</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3868936832692804</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3209256512592619</v>
+        <v>0.3266316616199169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4641381731825975</v>
+        <v>0.4580077172492749</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -1906,19 +1906,19 @@
         <v>123068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108570</v>
+        <v>108462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137671</v>
+        <v>139003</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4507489452124493</v>
+        <v>0.4507489452124494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3976513969925662</v>
+        <v>0.3972546081213466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5042349374882795</v>
+        <v>0.5091130441621715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>243</v>
@@ -1927,19 +1927,19 @@
         <v>226672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>204885</v>
+        <v>203509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>250054</v>
+        <v>249513</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4191310264100727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.378845492325294</v>
+        <v>0.3763025074234296</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4623663913936611</v>
+        <v>0.4613663134314024</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>41953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31511</v>
+        <v>32872</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53630</v>
+        <v>54648</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09060297854977996</v>
+        <v>0.09060297854977997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06805177302877484</v>
+        <v>0.07099123123738767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1158225838750902</v>
+        <v>0.11802088659648</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -2052,19 +2052,19 @@
         <v>53672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43504</v>
+        <v>42454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65878</v>
+        <v>64953</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1111336900615173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09007908289011558</v>
+        <v>0.08790586654628867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1364073474049299</v>
+        <v>0.1344926448005887</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -2073,19 +2073,19 @@
         <v>95625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81464</v>
+        <v>79979</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112961</v>
+        <v>111217</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1010843708478431</v>
+        <v>0.101084370847843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08611486134190925</v>
+        <v>0.08454527840717872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1194111472131195</v>
+        <v>0.1175668387943888</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>26757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18613</v>
+        <v>19291</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37287</v>
+        <v>36319</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05778489507032928</v>
+        <v>0.05778489507032929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04019717741887319</v>
+        <v>0.04166085420133726</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08052586388578774</v>
+        <v>0.07843715442842202</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -2123,19 +2123,19 @@
         <v>16848</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11654</v>
+        <v>11174</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24229</v>
+        <v>24176</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03488644165997679</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0241301181246915</v>
+        <v>0.02313772025949594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05016804592666044</v>
+        <v>0.0500586618316143</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>62</v>
@@ -2144,19 +2144,19 @@
         <v>43605</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33724</v>
+        <v>33304</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>55734</v>
+        <v>54963</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0460947170131483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03564905640407916</v>
+        <v>0.03520547670533913</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05891585848384659</v>
+        <v>0.05810145749910832</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>59648</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47975</v>
+        <v>47558</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73063</v>
+        <v>73314</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.128818035504944</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1036098056579767</v>
+        <v>0.1027091368365782</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1577911064564847</v>
+        <v>0.1583316557081812</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>131</v>
@@ -2194,19 +2194,19 @@
         <v>78778</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65708</v>
+        <v>67108</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>91338</v>
+        <v>93374</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1631193170821405</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1360556812133723</v>
+        <v>0.1389553619087137</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1891259688731788</v>
+        <v>0.1933417101684189</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>212</v>
@@ -2215,19 +2215,19 @@
         <v>138426</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>120611</v>
+        <v>120309</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>158862</v>
+        <v>158196</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1463296150881154</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1274974361092809</v>
+        <v>0.127178755887392</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1679327367636148</v>
+        <v>0.1672283140004362</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>131951</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>113588</v>
+        <v>112425</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151525</v>
+        <v>151913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2849679863746523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2453101771591068</v>
+        <v>0.2427982283769164</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3272400960085393</v>
+        <v>0.3280789641436352</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>174</v>
@@ -2265,19 +2265,19 @@
         <v>118100</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102748</v>
+        <v>103540</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133435</v>
+        <v>134005</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2445389357808074</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2127513394278714</v>
+        <v>0.2143924113777405</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2762920900933304</v>
+        <v>0.277472405309482</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>317</v>
@@ -2286,19 +2286,19 @@
         <v>250051</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>225845</v>
+        <v>226541</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>276742</v>
+        <v>276834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2643280421978482</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2387400821788706</v>
+        <v>0.2394755636326448</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2925429865098805</v>
+        <v>0.2926400674142137</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>202731</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>183557</v>
+        <v>182218</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>226235</v>
+        <v>222579</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4378261045002945</v>
+        <v>0.4378261045002946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3964173463711026</v>
+        <v>0.3935269243539963</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4885873238359435</v>
+        <v>0.4806926573579333</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>288</v>
@@ -2336,19 +2336,19 @@
         <v>215550</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>196904</v>
+        <v>195865</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>234727</v>
+        <v>234810</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4463216154155579</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4077135691647844</v>
+        <v>0.4055604821775587</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4860287263696453</v>
+        <v>0.4862007814174676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>485</v>
@@ -2357,19 +2357,19 @@
         <v>418281</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>390260</v>
+        <v>388452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>448148</v>
+        <v>444148</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4421632548530451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4125425641230345</v>
+        <v>0.4106313123255406</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4737353705746288</v>
+        <v>0.469507609410025</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>114086</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>95647</v>
+        <v>96907</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>133313</v>
+        <v>134481</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06877056185073792</v>
+        <v>0.06877056185073793</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0576554204856105</v>
+        <v>0.05841489634642432</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08036052965011468</v>
+        <v>0.08106477020703683</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>234</v>
@@ -2482,19 +2482,19 @@
         <v>133895</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>119605</v>
+        <v>117186</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>150992</v>
+        <v>153167</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08275460574614196</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07392227644251288</v>
+        <v>0.07242725941171455</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09332150115212801</v>
+        <v>0.0946658402003247</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>392</v>
@@ -2503,19 +2503,19 @@
         <v>247981</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>220980</v>
+        <v>222214</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>274725</v>
+        <v>272566</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07567518483110591</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06743539794269676</v>
+        <v>0.06781180401680927</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08383652474291389</v>
+        <v>0.08317758425497851</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>72339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>58577</v>
+        <v>58165</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>86936</v>
+        <v>87403</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04360579901323593</v>
+        <v>0.04360579901323594</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03530992074674808</v>
+        <v>0.03506157968001502</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05240468714992618</v>
+        <v>0.05268602663293407</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>100</v>
@@ -2553,19 +2553,19 @@
         <v>66744</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54539</v>
+        <v>54947</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>80979</v>
+        <v>82129</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04125135670349685</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03370840347377271</v>
+        <v>0.03396054872029029</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05004963389908781</v>
+        <v>0.05076020382986514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -2574,19 +2574,19 @@
         <v>139083</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>120989</v>
+        <v>119175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>160162</v>
+        <v>158739</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04244329290274539</v>
+        <v>0.0424432929027454</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0369214849857991</v>
+        <v>0.03636798174652227</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04887586836710284</v>
+        <v>0.04844158204006859</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>168271</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>145496</v>
+        <v>147253</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>194902</v>
+        <v>192192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.101433206244976</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08770458712688586</v>
+        <v>0.08876363237903834</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1174858772782135</v>
+        <v>0.1158525905344142</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>295</v>
@@ -2624,19 +2624,19 @@
         <v>180917</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>162295</v>
+        <v>160140</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>201646</v>
+        <v>203104</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1118170044073547</v>
+        <v>0.1118170044073548</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1003075146718077</v>
+        <v>0.09897512899653139</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1246285655573282</v>
+        <v>0.1255295907832243</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>490</v>
@@ -2645,19 +2645,19 @@
         <v>349189</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>315772</v>
+        <v>315943</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>382614</v>
+        <v>379618</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1065602075581675</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09636264185361693</v>
+        <v>0.09641472313012139</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.116760457455084</v>
+        <v>0.1158460069196958</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>524027</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>484869</v>
+        <v>487511</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>561871</v>
+        <v>565764</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3158807834169646</v>
+        <v>0.3158807834169647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2922768982593275</v>
+        <v>0.2938692826605601</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3386933494637529</v>
+        <v>0.3410401296333979</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>751</v>
@@ -2695,19 +2695,19 @@
         <v>502780</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>468863</v>
+        <v>472489</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>532595</v>
+        <v>534272</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3107459315123862</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2897835698038139</v>
+        <v>0.2920245064172858</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3291731769609016</v>
+        <v>0.3302096251859776</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1284</v>
@@ -2716,19 +2716,19 @@
         <v>1026807</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>974077</v>
+        <v>979539</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1077396</v>
+        <v>1081418</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3133454498091525</v>
+        <v>0.3133454498091524</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2972543218864419</v>
+        <v>0.2989211446854489</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3287834266717107</v>
+        <v>0.3300108241239766</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>780215</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>734347</v>
+        <v>738076</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>823340</v>
+        <v>825683</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4703096494740854</v>
+        <v>0.4703096494740855</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4426610193983254</v>
+        <v>0.4449088271777498</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4963053417138547</v>
+        <v>0.4977178913622053</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1024</v>
@@ -2766,19 +2766,19 @@
         <v>733642</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>699959</v>
+        <v>698195</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>770708</v>
+        <v>768231</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4534311016306201</v>
+        <v>0.4534311016306202</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4326133186900145</v>
+        <v>0.4315228660260608</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4763403541029118</v>
+        <v>0.4748090021718042</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1742</v>
@@ -2787,19 +2787,19 @@
         <v>1513856</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1460864</v>
+        <v>1455957</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1578531</v>
+        <v>1566555</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4619758648988288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4458044299008347</v>
+        <v>0.4443069735938577</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4817122816467032</v>
+        <v>0.4780577802937808</v>
       </c>
     </row>
     <row r="33">
